--- a/Cypher-sample_exploratory_queries/Cypher_Qeries.xlsx
+++ b/Cypher-sample_exploratory_queries/Cypher_Qeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikas Kumar\Downloads\GIT\NEO4J_Demo\Cypher-sample_exploratory_queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2358D8-E540-4362-BC16-044F45676B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255088F7-9B3C-4BE8-BE76-D2F94BF58659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53AA03B0-4E40-414F-A964-9BE214131937}"/>
   </bookViews>
@@ -526,7 +526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22B03152-591B-4A87-B8B0-4A8457A09868}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>

--- a/Cypher-sample_exploratory_queries/Cypher_Qeries.xlsx
+++ b/Cypher-sample_exploratory_queries/Cypher_Qeries.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vikas Kumar\Downloads\GIT\NEO4J_Demo\Cypher-sample_exploratory_queries\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{255088F7-9B3C-4BE8-BE76-D2F94BF58659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B617756-E21C-49A1-9E11-3BA336A06623}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{53AA03B0-4E40-414F-A964-9BE214131937}"/>
   </bookViews>
@@ -112,16 +112,16 @@
 RETURN commonInstitute.nameofinstitution AS commonInstituteName, COLLECT(DISTINCT person.name) AS personsAttended</t>
   </si>
   <si>
-    <t>Query to find who all attended different insitutions</t>
-  </si>
-  <si>
     <t>MATCH (transaction:Transaction)-[:PERFORMED_IN]-&gt;(country:Country)
 WITH transaction.merchant AS merchant, country.country AS countryName, COLLECT(transaction) AS transactions
 WHERE SIZE(transactions) &gt; 1
 RETURN merchant AS commonMerchant, COLLECT(countryName) AS countriesPerformed</t>
   </si>
   <si>
-    <t xml:space="preserve"> Query to find the most common merchant and country for transaction</t>
+    <t xml:space="preserve"> Query to find the most common merchant and country for transaction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Query to find who all attended different insitutions </t>
   </si>
 </sst>
 </file>
@@ -527,7 +527,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -644,7 +644,7 @@
         <v>19</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -652,10 +652,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
